--- a/Finished_df.xlsx
+++ b/Finished_df.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kijah\Documents\Data_Bootcamp\Estimator_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe\OneDrive\Desktop\Dataclass\Estimator_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5498533-1B0D-41E2-8C7E-3BC709059B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83314F25-3B50-4993-818C-BFD9DB3C4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working_Table" sheetId="1" r:id="rId1"/>
     <sheet name="Cleaned_Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -428,8 +441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -775,7 +788,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
